--- a/MONITOR/2021-2/Taller3/Estudiantes.xlsx
+++ b/MONITOR/2021-2/Taller3/Estudiantes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GIT\revisionTrabajos\MONITOR\2021-2\Taller3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UJ\UJ2021-01\Monitorias\revisionTrabajos\MONITOR\2021-2\Taller3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F19EF1A-87B7-40F9-852A-1DEB9A20D551}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A438514-5AED-4464-AAED-80BD25D204D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21480" yWindow="795" windowWidth="18900" windowHeight="10995" tabRatio="632" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="632" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Taller2" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Estudiante</t>
   </si>
@@ -112,6 +112,9 @@
   <si>
     <t>PUNTO3
 (Suma hasta 100)</t>
+  </si>
+  <si>
+    <t>No hay consistencia en el codigo</t>
   </si>
 </sst>
 </file>
@@ -4367,16 +4370,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D12" sqref="D12"/>
+      <selection pane="topRight" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="39.5703125" style="1" customWidth="1"/>
     <col min="2" max="4" width="28.140625" customWidth="1"/>
-    <col min="5" max="5" width="27" customWidth="1"/>
+    <col min="5" max="5" width="46.140625" customWidth="1"/>
     <col min="6" max="13" width="12" customWidth="1"/>
     <col min="14" max="970" width="8.5703125"/>
   </cols>
@@ -4532,10 +4535,18 @@
       <c r="A12" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="10"/>
+      <c r="B12" s="6">
+        <v>10</v>
+      </c>
+      <c r="C12" s="6">
+        <v>10</v>
+      </c>
+      <c r="D12" s="6">
+        <v>10</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>26</v>
+      </c>
       <c r="F12" s="8"/>
       <c r="G12" s="12"/>
       <c r="H12" s="8"/>
@@ -4584,9 +4595,15 @@
       <c r="A16" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
+      <c r="B16" s="6">
+        <v>10</v>
+      </c>
+      <c r="C16" s="6">
+        <v>10</v>
+      </c>
+      <c r="D16" s="6">
+        <v>10</v>
+      </c>
       <c r="E16" s="10"/>
       <c r="F16" s="8"/>
       <c r="G16" s="12"/>
@@ -4597,9 +4614,15 @@
       <c r="A17" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
+      <c r="B17" s="6">
+        <v>10</v>
+      </c>
+      <c r="C17" s="6">
+        <v>10</v>
+      </c>
+      <c r="D17" s="6">
+        <v>10</v>
+      </c>
       <c r="E17" s="10"/>
       <c r="F17" s="8"/>
       <c r="G17" s="12"/>
@@ -4623,9 +4646,15 @@
       <c r="A19" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
+      <c r="B19" s="6">
+        <v>10</v>
+      </c>
+      <c r="C19" s="6">
+        <v>9.9</v>
+      </c>
+      <c r="D19" s="6">
+        <v>9</v>
+      </c>
       <c r="E19" s="10"/>
       <c r="F19" s="8"/>
       <c r="G19" s="12"/>
@@ -4649,9 +4678,15 @@
       <c r="A21" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="16"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
+      <c r="B21" s="16">
+        <v>9.9</v>
+      </c>
+      <c r="C21" s="6">
+        <v>10</v>
+      </c>
+      <c r="D21" s="6">
+        <v>10</v>
+      </c>
       <c r="E21" s="10"/>
       <c r="F21" s="8"/>
       <c r="G21" s="12"/>
@@ -4662,9 +4697,15 @@
       <c r="A22" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
+      <c r="B22" s="6">
+        <v>10</v>
+      </c>
+      <c r="C22" s="6">
+        <v>10</v>
+      </c>
+      <c r="D22" s="6">
+        <v>9.8000000000000007</v>
+      </c>
       <c r="E22" s="10"/>
       <c r="F22" s="8"/>
       <c r="G22" s="12"/>

--- a/MONITOR/2021-2/Taller3/Estudiantes.xlsx
+++ b/MONITOR/2021-2/Taller3/Estudiantes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UJ\UJ2021-01\Monitorias\revisionTrabajos\MONITOR\2021-2\Taller3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A438514-5AED-4464-AAED-80BD25D204D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F56AEF5D-4A6B-47F7-BE65-48F4B5AD45D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="632" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -124,7 +124,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -198,6 +198,12 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -382,7 +388,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -446,6 +452,9 @@
     <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4370,9 +4379,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E15" sqref="E15"/>
+      <selection pane="topRight" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15.75"/>
@@ -4509,9 +4518,15 @@
       <c r="A10" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
+      <c r="B10" s="6">
+        <v>9</v>
+      </c>
+      <c r="C10" s="6">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="D10" s="6">
+        <v>9</v>
+      </c>
       <c r="E10" s="10"/>
       <c r="F10" s="8"/>
       <c r="G10" s="12"/>
@@ -4522,9 +4537,15 @@
       <c r="A11" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="6"/>
+      <c r="B11" s="14">
+        <v>10</v>
+      </c>
+      <c r="C11" s="14">
+        <v>7</v>
+      </c>
+      <c r="D11" s="23">
+        <v>0</v>
+      </c>
       <c r="E11" s="10"/>
       <c r="F11" s="8"/>
       <c r="G11" s="12"/>
@@ -4556,9 +4577,15 @@
       <c r="A13" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
+      <c r="B13" s="6">
+        <v>10</v>
+      </c>
+      <c r="C13" s="6">
+        <v>10</v>
+      </c>
+      <c r="D13" s="6">
+        <v>10</v>
+      </c>
       <c r="E13" s="10"/>
       <c r="F13" s="8"/>
       <c r="G13" s="12"/>
@@ -4633,9 +4660,15 @@
       <c r="A18" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
+      <c r="B18" s="6">
+        <v>10</v>
+      </c>
+      <c r="C18" s="6">
+        <v>10</v>
+      </c>
+      <c r="D18" s="6">
+        <v>10</v>
+      </c>
       <c r="E18" s="10"/>
       <c r="F18" s="8"/>
       <c r="G18" s="12"/>
@@ -4665,9 +4698,15 @@
       <c r="A20" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
+      <c r="B20" s="6">
+        <v>10</v>
+      </c>
+      <c r="C20" s="6">
+        <v>10</v>
+      </c>
+      <c r="D20" s="6">
+        <v>10</v>
+      </c>
       <c r="E20" s="10"/>
       <c r="F20" s="8"/>
       <c r="G20" s="12"/>

--- a/MONITOR/2021-2/Taller3/Estudiantes.xlsx
+++ b/MONITOR/2021-2/Taller3/Estudiantes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UJ\UJ2021-01\Monitorias\revisionTrabajos\MONITOR\2021-2\Taller3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F56AEF5D-4A6B-47F7-BE65-48F4B5AD45D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADAFC236-DD05-40DB-A01C-CEF749BBE9EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="632" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Estudiante</t>
   </si>
@@ -112,9 +112,6 @@
   <si>
     <t>PUNTO3
 (Suma hasta 100)</t>
-  </si>
-  <si>
-    <t>No hay consistencia en el codigo</t>
   </si>
 </sst>
 </file>
@@ -432,6 +429,9 @@
     <xf numFmtId="164" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -452,9 +452,6 @@
     <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4381,7 +4378,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B9" sqref="B9"/>
+      <selection pane="topRight" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15.75"/>
@@ -4394,20 +4391,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18" customHeight="1" thickBot="1">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
       <c r="E1" s="9"/>
     </row>
     <row r="2" spans="1:13" ht="18" customHeight="1" thickBot="1">
       <c r="A2" s="2"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="22" t="s">
+      <c r="B2" s="18"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="23" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4424,17 +4421,17 @@
       <c r="D3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="22"/>
-      <c r="F3" s="20" t="s">
+      <c r="E3" s="23"/>
+      <c r="F3" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
     </row>
     <row r="4" spans="1:13" ht="16.5" customHeight="1">
       <c r="A4" s="7" t="s">
@@ -4453,9 +4450,15 @@
       <c r="A5" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
+      <c r="B5" s="13">
+        <v>10</v>
+      </c>
+      <c r="C5" s="13">
+        <v>10</v>
+      </c>
+      <c r="D5" s="13">
+        <v>10</v>
+      </c>
       <c r="E5" s="10"/>
       <c r="F5" s="8"/>
       <c r="G5" s="12"/>
@@ -4466,9 +4469,15 @@
       <c r="A6" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
+      <c r="B6" s="13">
+        <v>10</v>
+      </c>
+      <c r="C6" s="13">
+        <v>7</v>
+      </c>
+      <c r="D6" s="13">
+        <v>10</v>
+      </c>
       <c r="E6" s="10"/>
       <c r="F6" s="8"/>
       <c r="G6" s="12"/>
@@ -4479,9 +4488,15 @@
       <c r="A7" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
+      <c r="B7" s="6">
+        <v>10</v>
+      </c>
+      <c r="C7" s="6">
+        <v>10</v>
+      </c>
+      <c r="D7" s="6">
+        <v>10</v>
+      </c>
       <c r="E7" s="10"/>
       <c r="F7" s="8"/>
       <c r="G7" s="12"/>
@@ -4505,9 +4520,15 @@
       <c r="A9" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
+      <c r="B9" s="6">
+        <v>9.4</v>
+      </c>
+      <c r="C9" s="6">
+        <v>10</v>
+      </c>
+      <c r="D9" s="6">
+        <v>9.4</v>
+      </c>
       <c r="E9" s="10"/>
       <c r="F9" s="8"/>
       <c r="G9" s="12"/>
@@ -4519,13 +4540,13 @@
         <v>5</v>
       </c>
       <c r="B10" s="6">
-        <v>9</v>
+        <v>9.4</v>
       </c>
       <c r="C10" s="6">
         <v>9.8000000000000007</v>
       </c>
       <c r="D10" s="6">
-        <v>9</v>
+        <v>9.4</v>
       </c>
       <c r="E10" s="10"/>
       <c r="F10" s="8"/>
@@ -4543,7 +4564,7 @@
       <c r="C11" s="14">
         <v>7</v>
       </c>
-      <c r="D11" s="23">
+      <c r="D11" s="17">
         <v>0</v>
       </c>
       <c r="E11" s="10"/>
@@ -4565,9 +4586,7 @@
       <c r="D12" s="6">
         <v>10</v>
       </c>
-      <c r="E12" s="10" t="s">
-        <v>26</v>
-      </c>
+      <c r="E12" s="10"/>
       <c r="F12" s="8"/>
       <c r="G12" s="12"/>
       <c r="H12" s="8"/>
